--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4771-2026</t>
+          <t>A 60706-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46048.54668981482</v>
+        <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1263,237 +1263,237 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Mindre hackspett
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 4771-2026</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46048.54668981482</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 13912-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45737</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>6.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tjäder</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 13912-2025 artfynd.xlsx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 13912-2025 karta.png", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 13912-2025 FSC-klagomål.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 13912-2025 FSC-klagomål mail.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 13912-2025 tillsynsbegäran.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 13912-2025 tillsynsbegäran mail.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 13912-2025 prioriterade fågelarter.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 60706-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45260</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 53156-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1506,20 +1506,20 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>10.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
@@ -1530,55 +1530,59 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53156-2021</t>
+          <t>A 50295-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44468</v>
+        <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,7 +1595,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1603,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1615,45 +1619,41 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,14 +1765,14 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1789,59 +1789,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,7 +1850,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1888,31 +1884,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
@@ -1926,7 +1922,7 @@
         <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,14 +2000,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2024,7 +2020,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2058,45 +2054,49 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50295-2024</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45600.62445601852</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2133,41 +2133,41 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2915,14 +2915,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 62007-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62007-2021</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44502</v>
+        <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>45095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.3</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>10.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45095</v>
+        <v>44977</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44757</v>
+        <v>44306</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44957</v>
+        <v>45310</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45286</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45726</v>
+        <v>44614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44614</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44599</v>
+        <v>44977</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>44757</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45173</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45945</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45950</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44977</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>45950</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44602</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45048</v>
+        <v>44951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45401.610625</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44582</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>44602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45125</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44785</v>
+        <v>45286</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45134</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45173</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45215</v>
+        <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>9.1</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44951</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45084</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44306</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45726</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45575</v>
+        <v>44957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>45215</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>9.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44977</v>
+        <v>44582</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45401.610625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45748</v>
+        <v>45048</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45748</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>45748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>45748</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>45134</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45310</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45951.78824074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45879.45538194444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44719.45615740741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>45356.36320601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45267.53284722222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44403.4725462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44467.5972337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45455.36590277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45389.85628472222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45777.4587962963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45743.60700231481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44977</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>45888.33400462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44306</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45644.64081018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45888.33225694444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44950.49107638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45590.57652777778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>45310</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44547.87140046297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45716.70841435185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44785.31972222222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44950.48391203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>44614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>45908.52364583333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44977</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>45840.33818287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44757</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45923.4296875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45173</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45834.29967592593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45630.87756944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45630.87388888889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45630.87564814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45630.88071759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45789.57516203704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>45259.84060185185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45939.59266203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45943.65840277778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45945.43429398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45945.49040509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45945.50262731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45722.5778125</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45722.5817824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45950.7683912037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45852.81349537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45950</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45952.58126157407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45343.28206018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45952.59604166666</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45714.64293981482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45665.5518287037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45366.39716435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45743.59576388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45964.64162037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45138.5799537037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45286</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45863.66916666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44977.63353009259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>45209.49538194444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45642.62672453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45618.74254629629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>46037.38494212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>46037.37466435185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45769.56519675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45726</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45996.5859837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45604.37143518519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>46048.54363425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45215</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44582</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>45401.610625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45048</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45523.83888888889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45748</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45769.76158564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>45769.7637962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45525.9071875</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45769.5621875</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45134</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45785.62372685185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45713.66313657408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45734.71525462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45732.7803125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45743.49373842592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>45713.48292824074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45797.34690972222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45951.78824074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45879.45538194444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44719.45615740741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>45356.36320601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45267.53284722222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44403.4725462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44467.5972337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45455.36590277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45389.85628472222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45777.4587962963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45743.60700231481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44977</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>45888.33400462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44306</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45644.64081018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45888.33225694444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44950.49107638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45590.57652777778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>45310</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44547.87140046297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45716.70841435185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44785.31972222222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44950.48391203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>44614</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>45908.52364583333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44977</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>45840.33818287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44757</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45923.4296875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45173</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45834.29967592593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45630.87756944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45630.87388888889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45630.87564814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45630.88071759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45789.57516203704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>45259.84060185185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45939.59266203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45943.65840277778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45945.43429398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45945.49040509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45945.50262731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45722.5778125</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45722.5817824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45950.7683912037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45852.81349537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45950</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45952.58126157407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45343.28206018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45952.59604166666</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45714.64293981482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45665.5518287037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45366.39716435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45743.59576388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45964.64162037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45138.5799537037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45286</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45863.66916666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44977.63353009259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44599</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>45209.49538194444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45642.62672453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45618.74254629629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>46037.38494212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>46037.37466435185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45769.56519675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45726</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45996.5859837963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45604.37143518519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>46048.54363425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45215</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44582</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>45401.610625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45048</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45523.83888888889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45748</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45769.76158564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>45769.7637962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45525.9071875</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45769.5621875</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45134</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45785.62372685185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45713.66313657408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45734.71525462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45732.7803125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45743.49373842592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>45713.48292824074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45797.34690972222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z129"/>
+  <dimension ref="A1:Z130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 60706-2023</t>
+          <t>A 4771-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45260</v>
+        <v>46048.54668981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,25 +1236,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1263,223 +1263,223 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 13912-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 13912-2025 artfynd.xlsx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 13912-2025 karta.png", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 13912-2025 FSC-klagomål.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 13912-2025 FSC-klagomål mail.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 13912-2025 tillsynsbegäran.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 13912-2025 tillsynsbegäran mail.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 13912-2025 prioriterade fågelarter.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 60706-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Mindre hackspett
 Blåmossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 4771-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46048.54668981482</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 13912-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45737</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 13912-2025 artfynd.xlsx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 13912-2025 karta.png", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 13912-2025 FSC-klagomål.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 13912-2025 FSC-klagomål mail.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 13912-2025 tillsynsbegäran.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 13912-2025 tillsynsbegäran mail.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 13912-2025 prioriterade fågelarter.docx", "A 13912-2025")</f>
         <v/>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,14 +1575,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 50295-2024</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45600.62445601852</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1629,31 +1629,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45951.78824074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,14 +1830,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 54611-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>45966.32216435186</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>10.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1884,45 +1884,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 54611-2025</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45966.32216435186</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1935,23 +1935,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>10.8</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -1959,55 +1959,59 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2020,7 +2024,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2054,49 +2058,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 50295-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>45600.62445601852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2133,41 +2133,41 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54601-2021</t>
+          <t>A 14782-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44473</v>
+        <v>44280</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14782-2021</t>
+          <t>A 54601-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44280</v>
+        <v>44473</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45575</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>45095</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.6</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45095</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>44957</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>44599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>44614</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45084</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10.3</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44977</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44306</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>10.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>45888.33225694444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45310</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>45048</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44785</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44614</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>45125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44977</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>44785</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44757</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45125</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45173</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>45630.87756944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>45945</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45945</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45950</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45286</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45950</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>44602</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44951</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>45401.610625</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>44582</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44602</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45286</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45726</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44599</v>
+        <v>45173</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>6.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>45215</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>44951</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45726</v>
+        <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>44306</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44957</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45215</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>9.1</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44582</v>
+        <v>45575</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45401.610625</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45048</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>44977</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45748</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>45748</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45134</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8384,17 +8384,17 @@
       </c>
       <c r="R128" s="2" t="inlineStr"/>
     </row>
-    <row r="129">
+    <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8440,6 +8440,63 @@
         <v>0</v>
       </c>
       <c r="R129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>A 2412-2024</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,14 +956,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 45604-2025</t>
+          <t>A 11794-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45922.69664351852</v>
+        <v>45727.73962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,17 +976,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1009,121 +1009,121 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Vanlig groda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 11794-2025 artfynd.xlsx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 11794-2025 karta.png", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 11794-2025 FSC-klagomål.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 11794-2025 FSC-klagomål mail.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 11794-2025 tillsynsbegäran.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 11794-2025 tillsynsbegäran mail.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 45604-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45922.69664351852</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Granbräken
 Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 45604-2025 artfynd.xlsx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 45604-2025 karta.png", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 45604-2025 FSC-klagomål.docx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 45604-2025 FSC-klagomål mail.docx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 45604-2025 tillsynsbegäran.docx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 45604-2025 tillsynsbegäran mail.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 11794-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45727.73962962963</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Vanlig groda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 11794-2025 artfynd.xlsx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 11794-2025 karta.png", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 11794-2025 FSC-klagomål.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 11794-2025 FSC-klagomål mail.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 11794-2025 tillsynsbegäran.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 11794-2025 tillsynsbegäran mail.docx", "A 11794-2025")</f>
         <v/>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4771-2026</t>
+          <t>A 60706-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46048.54668981482</v>
+        <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1263,223 +1263,223 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Mindre hackspett
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 4771-2026</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46048.54668981482</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 13912-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45737</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>6.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tjäder</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 13912-2025 artfynd.xlsx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 13912-2025 karta.png", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 13912-2025 FSC-klagomål.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 13912-2025 FSC-klagomål mail.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 13912-2025 tillsynsbegäran.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 13912-2025 tillsynsbegäran mail.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 13912-2025 prioriterade fågelarter.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 60706-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45260</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
         <v/>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,14 +1575,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 50295-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1629,31 +1629,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1799,45 +1799,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 54611-2025</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45966.32216435186</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>10.8</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1884,45 +1884,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 54611-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1935,14 +1935,14 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1959,59 +1959,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2024,7 +2020,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2058,45 +2054,49 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50295-2024</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45600.62445601852</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2133,41 +2133,41 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 14782-2021</t>
+          <t>A 54601-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44280</v>
+        <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54601-2021</t>
+          <t>A 14782-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44473</v>
+        <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45267.53284722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45575</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44757</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45095</v>
+        <v>45748</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>45748</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44957</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44599</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44614</v>
+        <v>45095</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>10.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44977</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10.3</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>45134</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45048</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45125</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44785</v>
+        <v>45084</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>44977</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>44306</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>44785</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45945</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45310</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>44614</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45950</v>
+        <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>44757</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45125</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45286</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44602</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45401.610625</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44582</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.6</v>
+        <v>3.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45945</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45726</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45134</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45173</v>
+        <v>44951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45215</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>6.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>44602</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44951</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45950</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45084</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7140,7 +7140,7 @@
         <v>45138.5799537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44306</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45286</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45575</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>44599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44977</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45748</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45748</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>45726</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>44957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>45215</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>9.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>44582</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45401.610625</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>45048</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45310</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,14 +956,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 11794-2025</t>
+          <t>A 45604-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45727.73962962963</v>
+        <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1009,121 +1009,121 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Granbräken
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 45604-2025 artfynd.xlsx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 45604-2025 karta.png", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 45604-2025 FSC-klagomål.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 45604-2025 FSC-klagomål mail.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 45604-2025 tillsynsbegäran.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 45604-2025 tillsynsbegäran mail.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 11794-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45727.73962962963</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Vanlig groda
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 11794-2025 artfynd.xlsx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 11794-2025 karta.png", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 11794-2025 FSC-klagomål.docx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 11794-2025 FSC-klagomål mail.docx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 11794-2025 tillsynsbegäran.docx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 11794-2025 tillsynsbegäran mail.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 45604-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45922.69664351852</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Granbräken
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 45604-2025 artfynd.xlsx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 45604-2025 karta.png", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 45604-2025 FSC-klagomål.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 45604-2025 FSC-klagomål mail.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 45604-2025 tillsynsbegäran.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 45604-2025 tillsynsbegäran mail.docx", "A 45604-2025")</f>
         <v/>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,14 +1660,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 22733-2025</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45789.58555555555</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,13 +1680,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1714,45 +1714,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,23 +1765,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
@@ -1789,55 +1789,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 22733-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45789.58555555555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,10 +1853,10 @@
         <v>1.2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1884,45 +1884,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 54611-2025</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45966.32216435186</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>10.8</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1969,45 +1969,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 54611-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>45966.32216435186</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2020,14 +2020,14 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2044,59 +2044,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,7 +2105,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2143,31 +2139,35 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54601-2021</t>
+          <t>A 9273-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44473</v>
+        <v>44616</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14782-2021</t>
+          <t>A 54601-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44280</v>
+        <v>44473</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2801,14 +2801,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 9273-2022</t>
+          <t>A 6293-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44616</v>
+        <v>44600</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2858,14 +2858,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6293-2022</t>
+          <t>A 14782-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44600</v>
+        <v>44280</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>44957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45575</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45748</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45748</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45286</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45095</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>44614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45095</v>
+        <v>44599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>10.3</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>44403.4725462963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>45084</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>44602</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45134</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>44977</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>45401.610625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>45310</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>44582</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45084</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44977</v>
+        <v>44306</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44306</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45048</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44785</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45134</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45173</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45215</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>9.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45310</v>
+        <v>45575</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44614</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44977</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44757</v>
+        <v>45125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45125</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45173</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>44785</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>44951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.6</v>
+        <v>10.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45945</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45748</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45748</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44951</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44602</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45950</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45286</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45945</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44599</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45950</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45726</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44957</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45215</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44582</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45401.610625</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45726</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45048</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45879.45538194444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 22733-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>45789.58555555555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1789,55 +1789,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 22733-2025</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45789.58555555555</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,10 +1853,10 @@
         <v>1.2</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1884,45 +1884,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 54611-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>10.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1969,45 +1969,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 54611-2025</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45966.32216435186</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2020,23 +2020,23 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>10.8</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -2044,55 +2044,59 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2109,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2139,49 +2143,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 48215-2022</t>
+          <t>A 12270-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44858</v>
+        <v>44266.91554398148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 12270-2021</t>
+          <t>A 48215-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44266.91554398148</v>
+        <v>44858</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 9273-2022</t>
+          <t>A 54601-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44616</v>
+        <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54601-2021</t>
+          <t>A 14782-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44473</v>
+        <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2801,14 +2801,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 6293-2022</t>
+          <t>A 9273-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44600</v>
+        <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2858,14 +2858,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14782-2021</t>
+          <t>A 6293-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44280</v>
+        <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44957</v>
+        <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45286</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45095</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44614</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44599</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44757</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>45084</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>10.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45084</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>44977</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44602</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>44306</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45310</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44977</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45401.610625</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45310</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44582</v>
+        <v>44785</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>44614</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44306</v>
+        <v>44757</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45173</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45048</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45134</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45173</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45215</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>9.1</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45575</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>44951</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45125</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>44602</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44977</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44785</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44951</v>
+        <v>45286</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>10.3</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45945</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45748</v>
+        <v>45950</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45748</v>
+        <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>44957</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45215</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>44582</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45945</v>
+        <v>45401.610625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45726</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45048</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45950</v>
+        <v>45748</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45748</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45134</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45726</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,14 +956,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 45604-2025</t>
+          <t>A 11794-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45922.69664351852</v>
+        <v>45727.73962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,17 +976,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1009,121 +1009,121 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Vanlig groda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 11794-2025 artfynd.xlsx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 11794-2025 karta.png", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 11794-2025 FSC-klagomål.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 11794-2025 FSC-klagomål mail.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 11794-2025 tillsynsbegäran.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 11794-2025 tillsynsbegäran mail.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 45604-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45922.69664351852</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Granbräken
 Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 45604-2025 artfynd.xlsx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 45604-2025 karta.png", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 45604-2025 FSC-klagomål.docx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 45604-2025 FSC-klagomål mail.docx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 45604-2025 tillsynsbegäran.docx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 45604-2025 tillsynsbegäran mail.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 11794-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45727.73962962963</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Vanlig groda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 11794-2025 artfynd.xlsx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 11794-2025 karta.png", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 11794-2025 FSC-klagomål.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 11794-2025 FSC-klagomål mail.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 11794-2025 tillsynsbegäran.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 11794-2025 tillsynsbegäran mail.docx", "A 11794-2025")</f>
         <v/>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 60706-2023</t>
+          <t>A 4771-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45260</v>
+        <v>46048.54668981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,25 +1236,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1263,133 +1263,133 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 60706-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Mindre hackspett
 Blåmossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 4771-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46048.54668981482</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
         <v/>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,14 +1660,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,23 +1680,23 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
@@ -1704,41 +1704,45 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
@@ -1752,7 +1756,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,14 +1834,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1850,7 +1854,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1884,45 +1888,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 54611-2025</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45966.32216435186</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1935,7 +1939,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>10.8</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1969,45 +1973,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 54611-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>45966.32216435186</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2020,14 +2024,14 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2044,45 +2048,41 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
         <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2174,14 +2174,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 12270-2021</t>
+          <t>A 48215-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44266.91554398148</v>
+        <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 48215-2022</t>
+          <t>A 12270-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44858</v>
+        <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>45356.36320601852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44403.4725462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44467.5972337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45084</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>10.3</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>10.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44977</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44306</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45310</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>45084</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45310</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44785</v>
+        <v>44977</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>44306</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44614</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44977</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44757</v>
+        <v>44785</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45125</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45173</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>44614</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>44977</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>44757</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45125</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44951</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44602</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45173</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>45945</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45286</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45950</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45945</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45950</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44599</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>44951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>44602</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45286</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44957</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45215</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44582</v>
+        <v>45726</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45401.610625</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>44599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45726</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45048</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>44957</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45748</v>
+        <v>45215</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.8</v>
+        <v>9.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45748</v>
+        <v>44582</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45401.610625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45048</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45748</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45134</v>
+        <v>45748</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>45134</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4771-2026</t>
+          <t>A 60706-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46048.54668981482</v>
+        <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1263,133 +1263,133 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Mindre hackspett
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 4771-2026</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46048.54668981482</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 60706-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45260</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
         <v/>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,14 +1660,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 22733-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>45789.58555555555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1704,59 +1704,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 22733-2025</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45789.58555555555</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1772,10 +1768,10 @@
         <v>1.2</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1803,31 +1799,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
@@ -1841,7 +1837,7 @@
         <v>45879.45538194444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,14 +1915,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 54611-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1939,7 +1935,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>10.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1973,45 +1969,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 54611-2025</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45966.32216435186</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2024,23 +2020,23 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>10.8</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -2048,41 +2044,45 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
         <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>45356.36320601852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45095</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44403.4725462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>10.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>45734.71525462963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>45732.7803125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45743.49373842592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10.3</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>45797.34690972222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45084</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>45644.64081018518</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45084</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45310</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44977</v>
+        <v>45310</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44306</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>44977</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>44306</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>44950.49107638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44785</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>44785</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44614</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44977</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44757</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45125</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>44614</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>44757</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45173</v>
+        <v>45125</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45945</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45945</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45173</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45950</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45950</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>45343.28206018519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>45665.5518287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45366.39716435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>44602</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>45726</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45286</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45286</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7197,7 +7197,7 @@
         <v>44977.63353009259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45726</v>
+        <v>44599</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44599</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>45604.37143518519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44957</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45215</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44582</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45401.610625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45048</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45523.83888888889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45748</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45748</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45769.76158564815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45769.7637962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45525.9071875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>45769.5621875</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45134</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45785.62372685185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 60706-2023</t>
+          <t>A 4771-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45260</v>
+        <v>46048.54668981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,25 +1236,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1263,237 +1263,237 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 13912-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 13912-2025 artfynd.xlsx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 13912-2025 karta.png", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 13912-2025 FSC-klagomål.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 13912-2025 FSC-klagomål mail.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 13912-2025 tillsynsbegäran.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 13912-2025 tillsynsbegäran mail.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 13912-2025 prioriterade fågelarter.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 60706-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Mindre hackspett
 Blåmossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 4771-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46048.54668981482</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 13912-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45737</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 13912-2025 artfynd.xlsx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 13912-2025 karta.png", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 13912-2025 FSC-klagomål.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 13912-2025 FSC-klagomål mail.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 13912-2025 tillsynsbegäran.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 13912-2025 tillsynsbegäran mail.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 13912-2025 prioriterade fågelarter.docx", "A 13912-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53156-2021</t>
+          <t>A 22733-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44468</v>
+        <v>45789.58555555555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10.4</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1530,59 +1530,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 50295-2024</t>
+          <t>A 53156-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45600.62445601852</v>
+        <v>44468</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1595,7 +1591,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>10.4</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1607,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1619,55 +1615,59 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 22733-2025</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45789.58555555555</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1683,10 +1683,10 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1714,45 +1714,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 54611-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45966.32216435186</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>10.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1799,45 +1799,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 50295-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>45600.62445601852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1850,13 +1850,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1884,45 +1884,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 54611-2025</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45966.32216435186</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>10.8</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1969,31 +1969,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
         <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45575</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45748</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>45748</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45095</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>10.3</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>45095</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>44757</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>10.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45084</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45310</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>44957</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44977</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44306</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45945</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44785</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45950</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>44614</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44614</v>
+        <v>44599</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44977</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44757</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45310</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45125</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45945</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>44977</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45173</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>45852.81349537037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45950</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45048</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>45743.59576388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45726</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>44785</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44951</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44602</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45726</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45286</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45286</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>44602</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44599</v>
+        <v>45401.610625</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>44582</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>7.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>45134</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45215</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>9.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44957</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45215</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44582</v>
+        <v>44951</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.6</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45401.610625</v>
+        <v>45084</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45048</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>44306</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45748</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45748</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45575</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45134</v>
+        <v>44977</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,14 +956,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 11794-2025</t>
+          <t>A 45604-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45727.73962962963</v>
+        <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1009,121 +1009,121 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Granbräken
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 45604-2025 artfynd.xlsx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 45604-2025 karta.png", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 45604-2025 FSC-klagomål.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 45604-2025 FSC-klagomål mail.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 45604-2025 tillsynsbegäran.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 45604-2025 tillsynsbegäran mail.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 11794-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45727.73962962963</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Vanlig groda
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 11794-2025 artfynd.xlsx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 11794-2025 karta.png", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 11794-2025 FSC-klagomål.docx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 11794-2025 FSC-klagomål mail.docx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 11794-2025 tillsynsbegäran.docx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 11794-2025 tillsynsbegäran mail.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 45604-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45922.69664351852</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Granbräken
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 45604-2025 artfynd.xlsx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 45604-2025 karta.png", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 45604-2025 FSC-klagomål.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 45604-2025 FSC-klagomål mail.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 45604-2025 tillsynsbegäran.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 45604-2025 tillsynsbegäran mail.docx", "A 45604-2025")</f>
         <v/>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 4771-2026</t>
+          <t>A 60706-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46048.54668981482</v>
+        <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1263,237 +1263,237 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Mindre hackspett
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 4771-2026</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46048.54668981482</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 13912-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45737</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>6.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tjäder</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 13912-2025 artfynd.xlsx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 13912-2025 karta.png", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 13912-2025 FSC-klagomål.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 13912-2025 FSC-klagomål mail.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 13912-2025 tillsynsbegäran.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 13912-2025 tillsynsbegäran mail.docx", "A 13912-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 13912-2025 prioriterade fågelarter.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 60706-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45260</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 22733-2025</t>
+          <t>A 53156-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45789.58555555555</v>
+        <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>10.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1530,55 +1530,59 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53156-2021</t>
+          <t>A 22733-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44468</v>
+        <v>45789.58555555555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,7 +1595,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>10.4</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1603,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1615,59 +1619,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1714,45 +1714,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 54611-2025</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45966.32216435186</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>10.8</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1799,45 +1799,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50295-2024</t>
+          <t>A 54611-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45600.62445601852</v>
+        <v>45966.32216435186</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1850,13 +1850,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>10.8</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1884,45 +1884,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1935,23 +1935,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -1959,55 +1959,59 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2020,7 +2024,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2054,49 +2058,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 50295-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>45600.62445601852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2133,41 +2133,41 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45748</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45748</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>45095</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>44977</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45095</v>
+        <v>44306</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44757</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10.3</v>
+        <v>4.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>10.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>44785</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>44614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>44977</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>44757</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44957</v>
+        <v>45125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45173</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45945</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45950</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44614</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44599</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>44951</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45310</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45945</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>44602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44977</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>45950</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45048</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>45286</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45726</v>
+        <v>44599</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45125</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44785</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45286</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>44957</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44602</v>
+        <v>45215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>44582</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>45401.610625</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44582</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45048</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45134</v>
+        <v>45748</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45173</v>
+        <v>45748</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45215</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>9.1</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44951</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45084</v>
+        <v>45134</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44306</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45575</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44977</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45310</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45879.45538194444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45951.78824074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45966.32216435186</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>46048.53950231482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44636.47275462963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44719.45615740741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>45356.36320601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45095</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44403.4725462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45267.53284722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44467.5972337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45455.36590277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45389.85628472222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44977</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44306</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44950.49107638889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>45716.70841435185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44547.87140046297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45777.4587962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45743.60700231481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45888.33400462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45888.33225694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44785</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44785.31972222222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44950.48391203704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44977</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44757</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>45834.29967592593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>45173</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>45908.52364583333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>45852.81349537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45923.4296875</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45714.64293981482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45630.87756944444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45630.87388888889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45630.87564814815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45630.88071759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45722.5778125</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45722.5817824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45743.59576388889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>45789.57516203704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45259.84060185185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45343.28206018519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44951</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45939.59266203704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45943.65840277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45665.5518287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45366.39716435185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45945</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45945.43429398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45945.49040509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45945.50262731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45950.7683912037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45950</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45952.58126157407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45138.5799537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45952.59604166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45286</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45964.64162037037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44977.63353009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44599</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45863.66916666667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45209.49538194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45642.62672453704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45618.74254629629</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45769.56519675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>46037.38494212963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>46037.37466435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45996.5859837963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45604.37143518519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44957</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>46048.54363425926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44582</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45401.610625</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>46060.45351851852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45840.33818287037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45048</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>45523.83888888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45748</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45748</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45769.76158564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45769.7637962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45525.9071875</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>45769.5621875</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45134</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45785.62372685185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45713.66313657408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45734.71525462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45732.7803125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45743.49373842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45713.48292824074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45797.34690972222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>45644.64081018518</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45590.57652777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45310</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45879.45538194444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45951.78824074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45966.32216435186</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>46048.53950231482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44636.47275462963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44719.45615740741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>45356.36320601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45095</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44403.4725462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45267.53284722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44467.5972337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45455.36590277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45389.85628472222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>45084</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44977</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44306</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44950.49107638889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>45716.70841435185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44547.87140046297</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45777.4587962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45743.60700231481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45888.33400462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45888.33225694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44785</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44785.31972222222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44950.48391203704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>44614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44977</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44757</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>45834.29967592593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>45173</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>45908.52364583333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>45852.81349537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45923.4296875</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45714.64293981482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45630.87756944444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45630.87388888889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45630.87564814815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45630.88071759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45722.5778125</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45722.5817824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>45743.59576388889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>45789.57516203704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45259.84060185185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45343.28206018519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>44951</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45939.59266203704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45943.65840277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45665.5518287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45366.39716435185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45945</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45945.43429398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44602</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45945.49040509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45945.50262731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45950.7683912037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45950</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45952.58126157407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>45138.5799537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45952.59604166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45286</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45964.64162037037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44977.63353009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44599</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45863.66916666667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45209.49538194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45642.62672453704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45618.74254629629</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45769.56519675926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>46037.38494212963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>46037.37466435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45726</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45996.5859837963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45604.37143518519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44957</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>46048.54363425926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44582</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45401.610625</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>46060.45351851852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>45840.33818287037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45048</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>45523.83888888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45748</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45748</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45769.76158564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45769.7637962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45525.9071875</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>45769.5621875</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>45134</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45785.62372685185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45713.66313657408</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45734.71525462963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45732.7803125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45743.49373842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45713.48292824074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45797.34690972222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>45644.64081018518</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45590.57652777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45310</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1660,14 +1660,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1714,45 +1714,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,23 +1765,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
@@ -1789,41 +1789,41 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>45966.32216435186</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>46048.53950231482</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 50295-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>45600.62445601852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2048,55 +2048,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50295-2024</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45600.62445601852</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2858,14 +2858,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6293-2022</t>
+          <t>A 62007-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44600</v>
+        <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2915,14 +2915,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62007-2021</t>
+          <t>A 6293-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44502</v>
+        <v>44600</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45575</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45095</v>
+        <v>45048</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>6.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>45095</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45084</v>
+        <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44977</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44306</v>
+        <v>45125</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>44977</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>44785</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>10.3</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>44602</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44785</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45401.610625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44614</v>
+        <v>44582</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44977</v>
+        <v>45286</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44757</v>
+        <v>44957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45125</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45173</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>44951</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>10.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45134</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45173</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45215</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>9.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>44614</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>44599</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44951</v>
+        <v>45084</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>44306</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45945</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44602</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>10</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45575</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45950</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45286</v>
+        <v>44977</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44599</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45945</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>45950</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45726</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44957</v>
+        <v>45748</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>45748</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45215</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44582</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45401.610625</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45048</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45748</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45748</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>45726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45134</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>45310</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45310</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,14 +956,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 45604-2025</t>
+          <t>A 11794-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45922.69664351852</v>
+        <v>45727.73962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,17 +976,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1009,121 +1009,121 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Vanlig groda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 11794-2025 artfynd.xlsx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 11794-2025 karta.png", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 11794-2025 FSC-klagomål.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 11794-2025 FSC-klagomål mail.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 11794-2025 tillsynsbegäran.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 11794-2025 tillsynsbegäran mail.docx", "A 11794-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 45604-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45922.69664351852</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Granbräken
 Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 45604-2025 artfynd.xlsx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 45604-2025 karta.png", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 45604-2025 FSC-klagomål.docx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 45604-2025 FSC-klagomål mail.docx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 45604-2025 tillsynsbegäran.docx", "A 45604-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 45604-2025 tillsynsbegäran mail.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 11794-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45727.73962962963</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Vanlig groda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 11794-2025 artfynd.xlsx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 11794-2025 karta.png", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 11794-2025 FSC-klagomål.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 11794-2025 FSC-klagomål mail.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 11794-2025 tillsynsbegäran.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 11794-2025 tillsynsbegäran mail.docx", "A 11794-2025")</f>
         <v/>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,14 +1486,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53156-2021</t>
+          <t>A 22733-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44468</v>
+        <v>45789.58555555555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10.4</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1530,59 +1530,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 22733-2025</t>
+          <t>A 53156-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45789.58555555555</v>
+        <v>44468</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1595,7 +1591,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>10.4</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1607,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1619,55 +1615,59 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 50295-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45600.62445601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,13 +1680,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1714,45 +1714,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,14 +1765,14 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1789,55 +1789,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 54611-2025</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45966.32216435186</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>10.8</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1884,45 +1884,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 54611-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1935,14 +1935,14 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1959,59 +1959,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 54611-2025 artfynd.xlsx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 54611-2025 karta.png", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 54611-2025 FSC-klagomål.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 54611-2025 FSC-klagomål mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 54611-2025 tillsynsbegäran.docx", "A 54611-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 54611-2025 tillsynsbegäran mail.docx", "A 54611-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 50295-2024</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45600.62445601852</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2024,7 +2020,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2039,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2048,55 +2044,59 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,23 +2109,23 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
@@ -2133,41 +2133,41 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54601-2021</t>
+          <t>A 14782-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44473</v>
+        <v>44280</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14782-2021</t>
+          <t>A 54601-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44280</v>
+        <v>44473</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2858,14 +2858,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62007-2021</t>
+          <t>A 6293-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44502</v>
+        <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2915,14 +2915,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6293-2022</t>
+          <t>A 62007-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44600</v>
+        <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>45575</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45048</v>
+        <v>45095</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45134</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45095</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44757</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45125</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.4</v>
+        <v>10.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44977</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44785</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44602</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45401.610625</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44582</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45286</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44957</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45084</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44951</v>
+        <v>44977</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10.3</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>44306</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45134</v>
+        <v>45310</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45173</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.3</v>
+        <v>4.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45215</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>9.1</v>
+        <v>4.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44614</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44599</v>
+        <v>44785</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45084</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>44614</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44306</v>
+        <v>44977</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45945</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>44757</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45575</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45173</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>45950</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44977</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45945</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>44951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45950</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>44602</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45286</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45748</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45748</v>
+        <v>44599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>45726</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>44957</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45726</v>
+        <v>45215</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.4</v>
+        <v>9.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>44582</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45401.610625</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>45048</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45310</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45748</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>45748</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45260</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45737</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,14 +1486,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 22733-2025</t>
+          <t>A 53156-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45789.58555555555</v>
+        <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>10.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1530,55 +1530,59 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53156-2021</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44468</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,7 +1595,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>10.4</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1603,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1625,35 +1629,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 53156-2021 artfynd.xlsx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 53156-2021 karta.png", "A 53156-2021")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/knärot/A 53156-2021 karta knärot.png", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 53156-2021 FSC-klagomål.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 53156-2021 FSC-klagomål mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 53156-2021 tillsynsbegäran.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 53156-2021 tillsynsbegäran mail.docx", "A 53156-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1745,14 +1745,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51807-2025</t>
+          <t>A 22733-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45951.78824074074</v>
+        <v>45789.58555555555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,10 +1768,10 @@
         <v>1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1799,45 +1799,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 22733-2025 artfynd.xlsx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 22733-2025 karta.png", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 22733-2025 FSC-klagomål.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 22733-2025 FSC-klagomål mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 22733-2025 tillsynsbegäran.docx", "A 22733-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 22733-2025 tillsynsbegäran mail.docx", "A 22733-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 51807-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>45951.78824074074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1884,31 +1884,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 51807-2025 artfynd.xlsx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 51807-2025 karta.png", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 51807-2025 FSC-klagomål.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 51807-2025 FSC-klagomål mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 51807-2025 tillsynsbegäran.docx", "A 51807-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 51807-2025 tillsynsbegäran mail.docx", "A 51807-2025")</f>
         <v/>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,14 +2000,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2020,14 +2020,14 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2044,59 +2044,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,7 +2105,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2143,31 +2139,35 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2573,14 +2573,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 3244-2022</t>
+          <t>A 54601-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44582</v>
+        <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2630,14 +2630,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 35927-2021</t>
+          <t>A 14782-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44388.52203703704</v>
+        <v>44280</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 14782-2021</t>
+          <t>A 3244-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44280</v>
+        <v>44582</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54601-2021</t>
+          <t>A 35927-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44473</v>
+        <v>44388.52203703704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2858,14 +2858,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6293-2022</t>
+          <t>A 62007-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44600</v>
+        <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2915,14 +2915,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62007-2021</t>
+          <t>A 6293-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44502</v>
+        <v>44600</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45575</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23070-2022</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44719.45615740741</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>44977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45095</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45134</v>
+        <v>45095</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>44757</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45575</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>44977</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>10.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>45048</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>44957</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>44602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>44614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>44599</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>44785</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45084</v>
+        <v>45748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45748</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44977</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45401.610625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44306</v>
+        <v>44582</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45310</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>10.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44785</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44614</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44977</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>45286</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45945</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44757</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45125</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45173</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>45134</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45950</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45173</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>45215</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>9.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45310</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44951</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44602</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 23070-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45286</v>
+        <v>44719.45615740741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45945</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44599</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>45950</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45726</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>44951</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44957</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45215</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44582</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45401.610625</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45048</v>
+        <v>45084</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>45726</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45748</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45748</v>
+        <v>44306</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,14 +956,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 11794-2025</t>
+          <t>A 45604-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45727.73962962963</v>
+        <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1009,121 +1009,121 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Granbräken
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 45604-2025 artfynd.xlsx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 45604-2025 karta.png", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 45604-2025 FSC-klagomål.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 45604-2025 FSC-klagomål mail.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 45604-2025 tillsynsbegäran.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 45604-2025 tillsynsbegäran mail.docx", "A 45604-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 11794-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45727.73962962963</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Vanlig groda
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 11794-2025 artfynd.xlsx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 11794-2025 karta.png", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 11794-2025 FSC-klagomål.docx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 11794-2025 FSC-klagomål mail.docx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 11794-2025 tillsynsbegäran.docx", "A 11794-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 11794-2025 tillsynsbegäran mail.docx", "A 11794-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 45604-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45922.69664351852</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Granbräken
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 45604-2025 artfynd.xlsx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 45604-2025 karta.png", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 45604-2025 FSC-klagomål.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 45604-2025 FSC-klagomål mail.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 45604-2025 tillsynsbegäran.docx", "A 45604-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 45604-2025 tillsynsbegäran mail.docx", "A 45604-2025")</f>
         <v/>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,14 +1216,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 60706-2023</t>
+          <t>A 4771-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45260</v>
+        <v>46048.54668981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,25 +1236,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1263,223 +1263,223 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 13912-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 13912-2025 artfynd.xlsx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 13912-2025 karta.png", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 13912-2025 FSC-klagomål.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 13912-2025 FSC-klagomål mail.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 13912-2025 tillsynsbegäran.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 13912-2025 tillsynsbegäran mail.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 13912-2025 prioriterade fågelarter.docx", "A 13912-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 60706-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>STENUNGSUND</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Mindre hackspett
 Blåmossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 60706-2023 artfynd.xlsx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 60706-2023 karta.png", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 60706-2023 FSC-klagomål.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 60706-2023 FSC-klagomål mail.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 60706-2023 tillsynsbegäran.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 60706-2023 tillsynsbegäran mail.docx", "A 60706-2023")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 60706-2023 prioriterade fågelarter.docx", "A 60706-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 4771-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46048.54668981482</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4771-2026 artfynd.xlsx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4771-2026 karta.png", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4771-2026 FSC-klagomål.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4771-2026 FSC-klagomål mail.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4771-2026 tillsynsbegäran.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4771-2026 tillsynsbegäran mail.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4771-2026 prioriterade fågelarter.docx", "A 4771-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 13912-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45737</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>STENUNGSUND</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 13912-2025 artfynd.xlsx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 13912-2025 karta.png", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 13912-2025 FSC-klagomål.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 13912-2025 FSC-klagomål mail.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 13912-2025 tillsynsbegäran.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 13912-2025 tillsynsbegäran mail.docx", "A 13912-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 13912-2025 prioriterade fågelarter.docx", "A 13912-2025")</f>
         <v/>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1575,14 +1575,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 12075-2022</t>
+          <t>A 50295-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44636.47275462963</v>
+        <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1619,55 +1619,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Bredgentiana</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 50295-2024</t>
+          <t>A 37539-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45600.62445601852</v>
+        <v>45879.45538194444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1680,13 +1680,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1714,31 +1714,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Murgröna</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 50295-2024 artfynd.xlsx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 50295-2024 karta.png", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 50295-2024 FSC-klagomål.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 50295-2024 FSC-klagomål mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 50295-2024 tillsynsbegäran.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 50295-2024 tillsynsbegäran mail.docx", "A 50295-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
         <v/>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45951.78824074074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,14 +2000,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 37539-2025</t>
+          <t>A 4765-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45879.45538194444</v>
+        <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2020,23 +2020,23 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -2044,55 +2044,59 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Murgröna</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 37539-2025 artfynd.xlsx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 37539-2025 karta.png", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 37539-2025 FSC-klagomål.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 37539-2025 FSC-klagomål mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 37539-2025 tillsynsbegäran.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 37539-2025 tillsynsbegäran mail.docx", "A 37539-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 4765-2026</t>
+          <t>A 12075-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46048.53950231482</v>
+        <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2105,7 +2109,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2139,35 +2143,31 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Bredgentiana</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 4765-2026 artfynd.xlsx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/artfynd/A 12075-2022 artfynd.xlsx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 4765-2026 karta.png", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/kartor/A 12075-2022 karta.png", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 4765-2026 FSC-klagomål.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomål/A 12075-2022 FSC-klagomål.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 4765-2026 FSC-klagomål mail.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/klagomålsmail/A 12075-2022 FSC-klagomål mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 4765-2026 tillsynsbegäran.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsyn/A 12075-2022 tillsynsbegäran.docx", "A 12075-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 4765-2026 tillsynsbegäran mail.docx", "A 4765-2026")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1415/fåglar/A 4765-2026 prioriterade fågelarter.docx", "A 4765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1415/tillsynsmail/A 12075-2022 tillsynsbegäran mail.docx", "A 12075-2022")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2573,14 +2573,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 54601-2021</t>
+          <t>A 3244-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44473</v>
+        <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2630,14 +2630,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 14782-2021</t>
+          <t>A 35927-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44280</v>
+        <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 3244-2022</t>
+          <t>A 54601-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44582</v>
+        <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35927-2021</t>
+          <t>A 14782-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44388.52203703704</v>
+        <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2858,14 +2858,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62007-2021</t>
+          <t>A 6293-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44502</v>
+        <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2915,14 +2915,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6293-2022</t>
+          <t>A 62007-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44600</v>
+        <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 48895-2023</t>
+          <t>A 62220-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45209.49538194444</v>
+        <v>45267.53284722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>7.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62220-2023</t>
+          <t>A 10472-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45267.53284722222</v>
+        <v>45366.39716435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8576-2023</t>
+          <t>A 30175-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44977</v>
+        <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13586-2024</t>
+          <t>A 27030-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45389.85628472222</v>
+        <v>45095</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54931-2024</t>
+          <t>A 37866-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45618.74254629629</v>
+        <v>44403.4725462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10472-2024</t>
+          <t>A 33011-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45366.39716435185</v>
+        <v>44785.31972222222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.3</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 27030-2023</t>
+          <t>A 4734-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45095</v>
+        <v>44957</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 30175-2022</t>
+          <t>A 8948-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44757</v>
+        <v>44614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 45000-2024</t>
+          <t>A 6147-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45575</v>
+        <v>44599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6913-2024</t>
+          <t>A 60832-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45343.28206018519</v>
+        <v>45644.64081018518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3569-2023</t>
+          <t>A 38996-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44950.48391203704</v>
+        <v>45888.33400462963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8684-2024</t>
+          <t>A 20974-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45356.36320601852</v>
+        <v>45777.4587962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>10.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8544-2023</t>
+          <t>A 14990-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44977</v>
+        <v>45743.60700231481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37866-2021</t>
+          <t>A 38994-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44403.4725462963</v>
+        <v>45888.33225694444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 33011-2022</t>
+          <t>A 48365-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44785.31972222222</v>
+        <v>45590.57652777778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60158-2024</t>
+          <t>A 3570-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45642.62672453704</v>
+        <v>44950.49107638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19059-2023</t>
+          <t>A 9893-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45048</v>
+        <v>45716.70841435185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 4734-2023</t>
+          <t>A 2412-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44957</v>
+        <v>45310</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3998,14 +3998,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23762-2024</t>
+          <t>A 48895-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45455.36590277778</v>
+        <v>45209.49538194444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32960-2023</t>
+          <t>A 8576-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45125</v>
+        <v>44977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6699-2022</t>
+          <t>A 42791-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44602</v>
+        <v>45908.52364583333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 8567-2023</t>
+          <t>A 31625-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44977.63353009259</v>
+        <v>45834.29967592593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8948-2022</t>
+          <t>A 6913-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44614</v>
+        <v>45343.28206018519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6147-2022</t>
+          <t>A 60158-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44599</v>
+        <v>45642.62672453704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33010-2022</t>
+          <t>A 19059-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44785</v>
+        <v>45048</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 72944-2021</t>
+          <t>A 35172-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44547.87140046297</v>
+        <v>45852.81349537037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52952-2021</t>
+          <t>A 9282-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44467.5972337963</v>
+        <v>45714.64293981482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3570-2023</t>
+          <t>A 45710-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44950.49107638889</v>
+        <v>45923.4296875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 15724-2025</t>
+          <t>A 23762-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45748</v>
+        <v>45455.36590277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 15726-2025</t>
+          <t>A 32960-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45748</v>
+        <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 809-2025</t>
+          <t>A 14981-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45665.5518287037</v>
+        <v>45743.59576388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4739,14 +4739,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 19302-2025</t>
+          <t>A 22728-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45769.56519675926</v>
+        <v>45789.57516203704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 15535-2024</t>
+          <t>A 57766-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45401.610625</v>
+        <v>45630.87388888889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3243-2022</t>
+          <t>A 57767-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44582</v>
+        <v>45630.87564814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34105-2024</t>
+          <t>A 57769-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45523.83888888889</v>
+        <v>45630.88071759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 10843-2025</t>
+          <t>A 57768-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45722.5778125</v>
+        <v>45630.87756944444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10849-2025</t>
+          <t>A 33010-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45722.5817824074</v>
+        <v>44785</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5081,14 +5081,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38996-2025</t>
+          <t>A 60550-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45888.33400462963</v>
+        <v>45259.84060185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5138,14 +5138,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 20974-2025</t>
+          <t>A 52952-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45777.4587962963</v>
+        <v>44467.5972337963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>10.3</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5195,14 +5195,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14990-2025</t>
+          <t>A 19302-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45743.60700231481</v>
+        <v>45769.56519675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38994-2025</t>
+          <t>A 49621-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45888.33225694444</v>
+        <v>45939.59266203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19423-2025</t>
+          <t>A 50205-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45769.76158564815</v>
+        <v>45943.65840277778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 19424-2025</t>
+          <t>A 50491-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45769.7637962963</v>
+        <v>45945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5423,14 +5423,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 22187-2025</t>
+          <t>A 50508-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45785.62372685185</v>
+        <v>45945.43429398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5480,14 +5480,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13116-2025</t>
+          <t>A 50543-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45734.71525462963</v>
+        <v>45945.50262731482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5537,14 +5537,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 64992-2023</t>
+          <t>A 50538-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45286</v>
+        <v>45945.49040509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5594,14 +5594,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9080-2025</t>
+          <t>A 51450-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45713.66313657408</v>
+        <v>45950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5651,14 +5651,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12589-2025</t>
+          <t>A 51546-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45732.7803125</v>
+        <v>45950.7683912037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5708,14 +5708,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14906-2025</t>
+          <t>A 52012-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45743.49373842592</v>
+        <v>45952.59604166666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8961-2025</t>
+          <t>A 51992-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45713.48292824074</v>
+        <v>45952.58126157407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34555-2024</t>
+          <t>A 19423-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45525.9071875</v>
+        <v>45769.76158564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42791-2025</t>
+          <t>A 19424-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45908.52364583333</v>
+        <v>45769.7637962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24211-2025</t>
+          <t>A 64992-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45797.34690972222</v>
+        <v>45286</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5993,14 +5993,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 33950-2023</t>
+          <t>A 54247-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45134</v>
+        <v>45964.64162037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6050,14 +6050,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60832-2024</t>
+          <t>A 34555-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45644.64081018518</v>
+        <v>45525.9071875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6107,14 +6107,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45710-2025</t>
+          <t>A 6699-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45923.4296875</v>
+        <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 40950-2023</t>
+          <t>A 36018-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45173</v>
+        <v>45863.66916666667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6221,14 +6221,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51661-2023</t>
+          <t>A 72944-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45215</v>
+        <v>44547.87140046297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>9.1</v>
+        <v>4.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6278,14 +6278,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 48365-2024</t>
+          <t>A 15535-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45590.57652777778</v>
+        <v>45401.610625</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6335,14 +6335,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9893-2025</t>
+          <t>A 3243-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45716.70841435185</v>
+        <v>44582</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.2</v>
+        <v>7.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 2412-2024</t>
+          <t>A 34105-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45310</v>
+        <v>45523.83888888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 22728-2025</t>
+          <t>A 10843-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45789.57516203704</v>
+        <v>45722.5778125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 19296-2025</t>
+          <t>A 10849-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45769.5621875</v>
+        <v>45722.5817824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6563,14 +6563,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57766-2024</t>
+          <t>A 60687-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45630.87388888889</v>
+        <v>45996.5859837963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6620,14 +6620,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57767-2024</t>
+          <t>A 11362-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45630.87564814815</v>
+        <v>45726</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6677,14 +6677,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57769-2024</t>
+          <t>A 33950-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45630.88071759259</v>
+        <v>45134</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6734,14 +6734,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57768-2024</t>
+          <t>A 4769-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45630.87756944444</v>
+        <v>46048.54363425926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6791,14 +6791,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60550-2023</t>
+          <t>A 40950-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45259.84060185185</v>
+        <v>45173</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6848,14 +6848,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49621-2025</t>
+          <t>A 51661-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45939.59266203704</v>
+        <v>45215</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.3</v>
+        <v>9.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6905,14 +6905,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50205-2025</t>
+          <t>A 19296-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45943.65840277778</v>
+        <v>45769.5621875</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6969,7 +6969,7 @@
         <v>44719.45615740741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7019,14 +7019,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50491-2025</t>
+          <t>A 7562-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45945</v>
+        <v>46060.45351851852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50508-2025</t>
+          <t>A 4578-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45945.43429398148</v>
+        <v>44951</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 50543-2025</t>
+          <t>A 32997-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45945.50262731482</v>
+        <v>45840.33818287037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50538-2025</t>
+          <t>A 24807-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45945.49040509259</v>
+        <v>45084</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 51450-2025</t>
+          <t>A 34253-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45950</v>
+        <v>45138.5799537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 31625-2025</t>
+          <t>A 2472-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45834.29967592593</v>
+        <v>46037.37466435185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 51546-2025</t>
+          <t>A 18591-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45950.7683912037</v>
+        <v>44306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7418,14 +7418,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52012-2025</t>
+          <t>A 2481-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45952.59604166666</v>
+        <v>46037.38494212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7475,14 +7475,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 51992-2025</t>
+          <t>A 51367-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45952.58126157407</v>
+        <v>45604.37143518519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7532,14 +7532,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 54247-2025</t>
+          <t>A 13586-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45964.64162037037</v>
+        <v>45389.85628472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7589,14 +7589,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4578-2023</t>
+          <t>A 54931-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44951</v>
+        <v>45618.74254629629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7646,14 +7646,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 35172-2025</t>
+          <t>A 45000-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45852.81349537037</v>
+        <v>45575</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7703,14 +7703,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36018-2025</t>
+          <t>A 3569-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45863.66916666667</v>
+        <v>44950.48391203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7760,14 +7760,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 9282-2025</t>
+          <t>A 8684-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45714.64293981482</v>
+        <v>45356.36320601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7817,14 +7817,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 14981-2025</t>
+          <t>A 8544-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45743.59576388889</v>
+        <v>44977</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7874,14 +7874,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60687-2025</t>
+          <t>A 8567-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45996.5859837963</v>
+        <v>44977.63353009259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 2472-2026</t>
+          <t>A 15724-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46037.37466435185</v>
+        <v>45748</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7988,14 +7988,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 2481-2026</t>
+          <t>A 15726-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46037.38494212963</v>
+        <v>45748</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8045,14 +8045,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 24807-2023</t>
+          <t>A 809-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45084</v>
+        <v>45665.5518287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8102,14 +8102,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11362-2025</t>
+          <t>A 22187-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45726</v>
+        <v>45785.62372685185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8159,14 +8159,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 34253-2023</t>
+          <t>A 13116-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45138.5799537037</v>
+        <v>45734.71525462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8216,14 +8216,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 18591-2021</t>
+          <t>A 9080-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44306</v>
+        <v>45713.66313657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8273,14 +8273,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 51367-2024</t>
+          <t>A 12589-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45604.37143518519</v>
+        <v>45732.7803125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4769-2026</t>
+          <t>A 14906-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46048.54363425926</v>
+        <v>45743.49373842592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7562-2026</t>
+          <t>A 8961-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46060.45351851852</v>
+        <v>45713.48292824074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 32997-2025</t>
+          <t>A 24211-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45840.33818287037</v>
+        <v>45797.34690972222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>

--- a/Översikt STENUNGSUND.xlsx
+++ b/Översikt STENUNGSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45197</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>45197</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>45726.36305555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45922.69664351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45727.73962962963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45573.48770833333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>46048.54668981482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45737</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45260</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>45600.62445601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45879.45538194444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>45789.58555555555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45951.78824074074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45966.32216435186</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>46048.53950231482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44636.47275462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44858</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44266.91554398148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44320</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44266.91868055556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44608</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44424.57387731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44388.52203703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44616</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45267.53284722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45366.39716435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45095</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44403.4725462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44785.31972222222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44957</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>45644.64081018518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>45888.33400462963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>45777.4587962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>45743.60700231481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>45888.33225694444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45590.57652777778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44950.49107638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45716.70841435185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45310</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45209.49538194444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45908.52364583333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45834.29967592593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>45343.28206018519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>45642.62672453704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>45048</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45852.81349537037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>45714.64293981482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>45923.4296875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>45455.36590277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45743.59576388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45789.57516203704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45630.87388888889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45630.87564814815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45630.88071759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45630.87756944444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44785</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45259.84060185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44467.5972337963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>45769.56519675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45939.59266203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>45943.65840277778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45945</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45945.43429398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45945.50262731482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>45945.49040509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45950</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45950.7683912037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45952.59604166666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45952.58126157407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45769.76158564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45769.7637962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45286</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45964.64162037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45525.9071875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45863.66916666667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44547.87140046297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45401.610625</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44582</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45523.83888888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45722.5778125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45722.5817824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45996.5859837963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45726</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45134</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>46048.54363425926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45173</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45215</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45769.5621875</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>44719.45615740741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>46060.45351851852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44951</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45840.33818287037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45084</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>45138.5799537037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>46037.37466435185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44306</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>46037.38494212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>45604.37143518519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45389.85628472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>45618.74254629629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>45575</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44950.48391203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>45356.36320601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44977</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44977.63353009259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45748</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45748</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45665.5518287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45785.62372685185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45734.71525462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45713.66313657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45732.7803125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>45743.49373842592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45713.48292824074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>45797.34690972222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
